--- a/TOSData/Linux/linux-server-log.xlsx
+++ b/TOSData/Linux/linux-server-log.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,15 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RProject\tmp\TOSData\Linux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2A1BD679-FE1A-4D8E-BCE3-BFE3F2BB7DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B21BD1-015A-40B4-B946-60F90D463A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11415" yWindow="1230" windowWidth="25560" windowHeight="13785"/>
+    <workbookView xWindow="3900" yWindow="4065" windowWidth="25560" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="linux-server-log" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
     </ext>
@@ -74,7 +83,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1019,11 +1028,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N210"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N211"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="J216" sqref="J216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1205,7 +1214,7 @@
         <v>4.9850000000000003</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N3:N66" si="1">(M4/1000)/H4*100</f>
+        <f t="shared" ref="N4:N66" si="1">(M4/1000)/H4*100</f>
         <v>0.35458470555599031</v>
       </c>
     </row>
@@ -10683,6 +10692,16 @@
       <c r="N210">
         <f t="shared" si="7"/>
         <v>1.7990095659930487</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L211">
+        <f>AVERAGE(L2:L210)</f>
+        <v>3.1736221208939965</v>
+      </c>
+      <c r="N211">
+        <f>AVERAGE(N2:N210)</f>
+        <v>1.2837864143196256</v>
       </c>
     </row>
   </sheetData>
